--- a/data/trans_camb/PLURIPATOLOGIA-Edad-trans_camb.xlsx
+++ b/data/trans_camb/PLURIPATOLOGIA-Edad-trans_camb.xlsx
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,95</t>
+          <t>0,0; 1,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,19</t>
+          <t>0,0; 0,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,27 +705,27 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 1,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 6,16</t>
+          <t>0,62; 5,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,69</t>
+          <t>0,0; 0,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,7</t>
+          <t>0,0; 0,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,85</t>
+          <t>0,32; 2,86</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,45</t>
+          <t>-0,28; 0,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 0,0</t>
+          <t>-0,86; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,11</t>
+          <t>-0,14; 2,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 0,94</t>
+          <t>-2,04; 0,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 0,64</t>
+          <t>-2,1; 0,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,05</t>
+          <t>-0,78; 3,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,51</t>
+          <t>-0,95; 0,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 0,28</t>
+          <t>-1,03; 0,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,9</t>
+          <t>-0,07; 2,07</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-79,11; 125,86</t>
+          <t>-82,77; 95,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,83; 107,69</t>
+          <t>-84,89; 70,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,28; 255,92</t>
+          <t>-39,81; 301,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-79,2; 113,35</t>
+          <t>-77,81; 88,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-83,48; 67,63</t>
+          <t>-80,67; 78,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 354,78</t>
+          <t>-13,7; 375,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,42</t>
+          <t>-1,29; 0,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,37</t>
+          <t>-1,42; 0,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,71</t>
+          <t>0,86; 4,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,87</t>
+          <t>-0,45; 2,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,76</t>
+          <t>-1,29; 1,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,37</t>
+          <t>0,7; 4,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,33</t>
+          <t>-0,52; 1,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 0,78</t>
+          <t>-0,99; 0,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,81</t>
+          <t>1,38; 3,93</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-94,61; 311,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,37 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,15; 1321,44</t>
+          <t>36,41; 1347,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,31; 218,81</t>
+          <t>-19,94; 216,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,7; 122,59</t>
+          <t>-45,65; 130,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,23; 365,91</t>
+          <t>17,2; 332,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,84; 127,24</t>
+          <t>-33,44; 131,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-51,86; 74,12</t>
+          <t>-51,85; 87,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>62,02; 396,78</t>
+          <t>68,42; 416,12</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,63</t>
+          <t>-2,06; 1,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,03</t>
+          <t>-1,55; 2,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,53; 6,37</t>
+          <t>1,48; 6,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 4,35</t>
+          <t>-1,23; 4,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,66</t>
+          <t>-0,96; 4,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,38; 12,11</t>
+          <t>5,47; 12,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,47</t>
+          <t>-0,98; 2,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,87</t>
+          <t>-0,69; 2,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,37; 8,72</t>
+          <t>4,25; 8,32</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-65,2; 147,57</t>
+          <t>-63,78; 167,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-52,92; 179,63</t>
+          <t>-56,0; 173,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>35,04; 523,33</t>
+          <t>33,05; 521,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,47; 117,27</t>
+          <t>-23,28; 110,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 126,42</t>
+          <t>-16,73; 129,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>74,69; 317,82</t>
+          <t>75,0; 321,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 90,38</t>
+          <t>-23,13; 85,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 102,63</t>
+          <t>-16,43; 105,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>93,74; 318,88</t>
+          <t>88,11; 297,19</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 1,0</t>
+          <t>-4,94; 1,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 2,02</t>
+          <t>-4,06; 2,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,23; 8,4</t>
+          <t>1,75; 8,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,07; 10,08</t>
+          <t>0,65; 9,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,16; 10,26</t>
+          <t>1,09; 10,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,99; 12,8</t>
+          <t>5,1; 12,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 5,02</t>
+          <t>-1,0; 4,66</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 5,12</t>
+          <t>-0,29; 5,2</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,33; 9,41</t>
+          <t>4,24; 9,52</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-66,4; 23,46</t>
+          <t>-64,3; 28,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-54,73; 48,7</t>
+          <t>-54,05; 58,08</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9,82; 184,16</t>
+          <t>21,37; 200,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,07; 118,36</t>
+          <t>5,1; 125,59</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>9,22; 130,83</t>
+          <t>7,35; 120,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>37,27; 159,17</t>
+          <t>39,42; 156,56</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 77,29</t>
+          <t>-11,33; 68,49</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 76,81</t>
+          <t>-3,76; 75,13</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>41,15; 133,16</t>
+          <t>40,32; 139,58</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 7,18</t>
+          <t>-1,72; 7,02</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 2,64</t>
+          <t>-5,52; 2,4</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,24; 12,93</t>
+          <t>5,22; 12,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,67; 12,94</t>
+          <t>3,85; 13,1</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,61; 11,04</t>
+          <t>1,55; 10,8</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>17,68; 41,34</t>
+          <t>17,12; 42,23</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,86; 9,2</t>
+          <t>2,85; 9,33</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 5,96</t>
+          <t>-0,8; 5,94</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>13,69; 31,39</t>
+          <t>13,67; 33,16</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 60,39</t>
+          <t>-11,16; 58,87</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-33,68; 23,39</t>
+          <t>-33,45; 20,14</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>30,45; 110,88</t>
+          <t>30,54; 110,8</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>17,33; 75,34</t>
+          <t>17,42; 75,01</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>6,07; 64,19</t>
+          <t>7,19; 59,8</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>84,04; 234,72</t>
+          <t>80,08; 227,96</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>14,55; 58,58</t>
+          <t>14,27; 58,56</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 37,44</t>
+          <t>-4,26; 37,76</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>73,99; 189,43</t>
+          <t>74,24; 194,23</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,33</t>
+          <t>-0,57; 1,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,98</t>
+          <t>-0,75; 1,0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,43</t>
+          <t>4,12; 6,41</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,54</t>
+          <t>1,8; 4,54</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,55</t>
+          <t>1,77; 4,49</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>9,5; 20,89</t>
+          <t>9,6; 21,17</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,59</t>
+          <t>0,97; 2,68</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,48</t>
+          <t>0,84; 2,48</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7,49; 13,98</t>
+          <t>7,44; 14,56</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 45,07</t>
+          <t>-14,69; 43,22</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 31,12</t>
+          <t>-19,48; 33,18</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>108,43; 212,29</t>
+          <t>104,17; 209,07</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>24,72; 74,38</t>
+          <t>24,15; 73,63</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>22,99; 75,2</t>
+          <t>22,81; 72,4</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>134,85; 323,73</t>
+          <t>134,71; 328,95</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>17,67; 54,64</t>
+          <t>17,42; 56,31</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>14,82; 52,58</t>
+          <t>15,59; 54,23</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>140,19; 269,93</t>
+          <t>138,91; 275,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PLURIPATOLOGIA-Edad-trans_camb.xlsx
+++ b/data/trans_camb/PLURIPATOLOGIA-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,13</t>
+          <t>0,0; 0,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 1,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,33</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,59</t>
+          <t>0,0; 0,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 0,6</t>
+          <t>-0,28; 0,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,0</t>
+          <t>-0,82; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 2,0</t>
+          <t>-0,14; 2,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,86</t>
+          <t>-2,11; 0,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,61</t>
+          <t>-2,14; 0,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,04</t>
+          <t>-0,83; 2,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 0,44</t>
+          <t>-0,94; 0,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,3</t>
+          <t>-1,1; 0,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 2,07</t>
+          <t>-0,11; 1,89</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-82,77; 95,04</t>
+          <t>-83,28; 93,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-84,89; 70,22</t>
+          <t>-81,45; 107,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,81; 301,39</t>
+          <t>-38,25; 278,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-77,81; 88,69</t>
+          <t>-77,48; 98,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-80,67; 78,39</t>
+          <t>-81,77; 59,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 375,78</t>
+          <t>-17,8; 323,96</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,39</t>
+          <t>-1,27; 0,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,35</t>
+          <t>-1,4; 0,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,48</t>
+          <t>0,91; 4,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,89</t>
+          <t>-0,45; 2,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,74</t>
+          <t>-1,08; 1,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,42</t>
+          <t>0,62; 4,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,35</t>
+          <t>-0,61; 1,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 0,83</t>
+          <t>-0,99; 0,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,93</t>
+          <t>1,32; 3,87</t>
         </is>
       </c>
     </row>
@@ -1233,37 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>36,41; 1347,37</t>
+          <t>32,64; 1082,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 216,49</t>
+          <t>-20,1; 225,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,65; 130,19</t>
+          <t>-40,62; 148,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,2; 332,14</t>
+          <t>16,01; 324,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 131,69</t>
+          <t>-35,46; 131,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-51,85; 87,77</t>
+          <t>-52,03; 79,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>68,42; 416,12</t>
+          <t>64,21; 377,9</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,82</t>
+          <t>-1,94; 1,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 2,06</t>
+          <t>-1,38; 2,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,56</t>
+          <t>1,55; 6,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,29</t>
+          <t>-1,51; 4,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 4,71</t>
+          <t>-1,3; 4,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,47; 12,24</t>
+          <t>5,84; 12,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,39</t>
+          <t>-0,87; 2,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,85</t>
+          <t>-0,49; 2,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,32</t>
+          <t>4,12; 8,35</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-63,78; 167,56</t>
+          <t>-63,21; 181,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-56,0; 173,89</t>
+          <t>-49,87; 200,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>33,05; 521,56</t>
+          <t>43,65; 496,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,28; 110,74</t>
+          <t>-23,8; 126,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 129,71</t>
+          <t>-21,47; 121,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>75,0; 321,89</t>
+          <t>83,31; 323,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 85,13</t>
+          <t>-19,81; 87,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 105,24</t>
+          <t>-11,36; 103,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>88,11; 297,19</t>
+          <t>88,93; 307,35</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 1,09</t>
+          <t>-5,17; 1,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,44</t>
+          <t>-4,33; 2,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,75; 8,36</t>
+          <t>1,75; 8,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,65; 9,96</t>
+          <t>0,66; 9,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,09; 10,34</t>
+          <t>1,19; 9,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,1; 12,61</t>
+          <t>4,86; 12,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 4,66</t>
+          <t>-1,2; 4,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 5,2</t>
+          <t>-0,37; 5,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,24; 9,52</t>
+          <t>4,33; 9,48</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-64,3; 28,62</t>
+          <t>-63,58; 31,03</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-54,05; 58,08</t>
+          <t>-54,37; 53,54</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>21,37; 200,78</t>
+          <t>19,36; 184,54</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,1; 125,59</t>
+          <t>3,68; 117,77</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>7,35; 120,38</t>
+          <t>6,57; 121,23</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>39,42; 156,56</t>
+          <t>37,25; 162,42</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 68,49</t>
+          <t>-13,22; 64,24</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 75,13</t>
+          <t>-4,51; 74,9</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>40,32; 139,58</t>
+          <t>43,2; 139,16</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 7,02</t>
+          <t>-1,66; 7,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 2,4</t>
+          <t>-5,36; 2,81</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,22; 12,93</t>
+          <t>5,22; 13,09</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,85; 13,1</t>
+          <t>3,89; 12,77</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,55; 10,8</t>
+          <t>1,77; 10,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>17,12; 42,23</t>
+          <t>17,61; 44,56</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,85; 9,33</t>
+          <t>2,9; 9,4</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 5,94</t>
+          <t>-0,12; 6,1</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>13,67; 33,16</t>
+          <t>13,68; 33,53</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 58,87</t>
+          <t>-10,46; 59,73</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-33,45; 20,14</t>
+          <t>-33,85; 23,78</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>30,54; 110,8</t>
+          <t>31,1; 111,11</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>17,42; 75,01</t>
+          <t>17,33; 72,21</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>7,19; 59,8</t>
+          <t>8,28; 62,42</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>80,08; 227,96</t>
+          <t>83,55; 241,84</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>14,27; 58,56</t>
+          <t>15,48; 58,33</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 37,76</t>
+          <t>-0,78; 37,8</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>74,24; 194,23</t>
+          <t>73,5; 197,35</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,28</t>
+          <t>-0,52; 1,3</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,0</t>
+          <t>-0,77; 0,95</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,12; 6,41</t>
+          <t>4,18; 6,44</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,54</t>
+          <t>1,92; 4,55</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,49</t>
+          <t>1,79; 4,51</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>9,6; 21,17</t>
+          <t>9,49; 21,63</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,68</t>
+          <t>1,0; 2,57</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,48</t>
+          <t>0,81; 2,45</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7,44; 14,56</t>
+          <t>7,45; 14,91</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 43,22</t>
+          <t>-14,13; 42,27</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 33,18</t>
+          <t>-20,02; 31,73</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>104,17; 209,07</t>
+          <t>106,9; 218,25</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>24,15; 73,63</t>
+          <t>25,56; 73,4</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>22,81; 72,4</t>
+          <t>24,48; 73,9</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>134,71; 328,95</t>
+          <t>132,16; 308,56</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>17,42; 56,31</t>
+          <t>17,96; 53,84</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>15,59; 54,23</t>
+          <t>14,75; 51,27</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>138,91; 275,15</t>
+          <t>138,07; 296,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PLURIPATOLOGIA-Edad-trans_camb.xlsx
+++ b/data/trans_camb/PLURIPATOLOGIA-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,86</t>
+          <t>0,0; 0,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,37 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,28</t>
+          <t>0,0; 0,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,21</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,87</t>
+          <t>0,64; 6,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,77</t>
+          <t>0,0; 0,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0,0; 0,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,86</t>
+          <t>0,32; 2,85</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 0,46</t>
+          <t>-0,29; 0,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,0</t>
+          <t>-0,69; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 2,03</t>
+          <t>-0,2; 2,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,83</t>
+          <t>-2,08; 0,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 0,74</t>
+          <t>-2,09; 0,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 2,81</t>
+          <t>-0,79; 3,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,51</t>
+          <t>-0,96; 0,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 0,23</t>
+          <t>-1,09; 0,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 1,89</t>
+          <t>-0,13; 1,9</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-83,28; 93,23</t>
+          <t>-79,11; 125,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,45; 107,09</t>
+          <t>-81,83; 107,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,25; 278,45</t>
+          <t>-38,28; 255,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-77,48; 98,07</t>
+          <t>-79,2; 113,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-81,77; 59,03</t>
+          <t>-83,48; 67,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 323,96</t>
+          <t>-17,66; 354,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,38</t>
+          <t>-1,32; 0,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,36</t>
+          <t>-1,42; 0,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,39</t>
+          <t>0,89; 4,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,94</t>
+          <t>-0,71; 2,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,91</t>
+          <t>-1,18; 1,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,45</t>
+          <t>0,81; 4,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,32</t>
+          <t>-0,54; 1,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 0,79</t>
+          <t>-0,99; 0,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,87</t>
+          <t>1,31; 3,81</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-94,61; 311,17</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,64; 1082,35</t>
+          <t>25,15; 1321,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 225,75</t>
+          <t>-27,31; 218,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,62; 148,11</t>
+          <t>-42,7; 122,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,01; 324,93</t>
+          <t>26,23; 365,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,46; 131,67</t>
+          <t>-31,84; 127,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-52,03; 79,67</t>
+          <t>-51,86; 74,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>64,21; 377,9</t>
+          <t>62,02; 396,78</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,87</t>
+          <t>-1,97; 1,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 2,18</t>
+          <t>-1,68; 2,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,55; 6,42</t>
+          <t>1,53; 6,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 4,39</t>
+          <t>-1,25; 4,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 4,49</t>
+          <t>-0,94; 4,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,84; 12,47</t>
+          <t>5,38; 12,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,35</t>
+          <t>-0,96; 2,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,82</t>
+          <t>-0,49; 2,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,35</t>
+          <t>4,37; 8,72</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-63,21; 181,46</t>
+          <t>-65,2; 147,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-49,87; 200,94</t>
+          <t>-52,92; 179,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>43,65; 496,19</t>
+          <t>35,04; 523,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 126,1</t>
+          <t>-20,47; 117,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,47; 121,26</t>
+          <t>-16,21; 126,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>83,31; 323,07</t>
+          <t>74,69; 317,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 87,13</t>
+          <t>-22,54; 90,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 103,44</t>
+          <t>-11,0; 102,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>88,93; 307,35</t>
+          <t>93,74; 318,88</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 1,24</t>
+          <t>-5,12; 1,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 2,35</t>
+          <t>-4,18; 2,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,75; 8,28</t>
+          <t>1,23; 8,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,66; 9,94</t>
+          <t>1,07; 10,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,19; 9,97</t>
+          <t>1,16; 10,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,86; 12,66</t>
+          <t>4,99; 12,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 4,38</t>
+          <t>-0,97; 5,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 5,11</t>
+          <t>-0,48; 5,12</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,33; 9,48</t>
+          <t>4,33; 9,41</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-63,58; 31,03</t>
+          <t>-66,4; 23,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-54,37; 53,54</t>
+          <t>-54,73; 48,7</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>19,36; 184,54</t>
+          <t>9,82; 184,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,68; 117,77</t>
+          <t>5,07; 118,36</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,57; 121,23</t>
+          <t>9,22; 130,83</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>37,25; 162,42</t>
+          <t>37,27; 159,17</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 64,24</t>
+          <t>-10,71; 77,29</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 74,9</t>
+          <t>-6,42; 76,81</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>43,2; 139,16</t>
+          <t>41,15; 133,16</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 7,08</t>
+          <t>-1,52; 7,18</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 2,81</t>
+          <t>-5,41; 2,64</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,22; 13,09</t>
+          <t>5,24; 12,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,89; 12,77</t>
+          <t>3,67; 12,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,77; 10,77</t>
+          <t>1,61; 11,04</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>17,61; 44,56</t>
+          <t>17,68; 41,34</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,9; 9,4</t>
+          <t>2,86; 9,2</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 6,1</t>
+          <t>-0,15; 5,96</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>13,68; 33,53</t>
+          <t>13,69; 31,39</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 59,73</t>
+          <t>-9,62; 60,39</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-33,85; 23,78</t>
+          <t>-33,68; 23,39</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>31,1; 111,11</t>
+          <t>30,45; 110,88</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>17,33; 72,21</t>
+          <t>17,33; 75,34</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>8,28; 62,42</t>
+          <t>6,07; 64,19</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>83,55; 241,84</t>
+          <t>84,04; 234,72</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>15,48; 58,33</t>
+          <t>14,55; 58,58</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 37,8</t>
+          <t>-0,75; 37,44</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>73,5; 197,35</t>
+          <t>73,99; 189,43</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,3</t>
+          <t>-0,53; 1,33</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,95</t>
+          <t>-0,85; 0,98</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,18; 6,44</t>
+          <t>4,19; 6,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,55</t>
+          <t>1,84; 4,54</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,51</t>
+          <t>1,67; 4,55</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>9,49; 21,63</t>
+          <t>9,5; 20,89</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,57</t>
+          <t>0,97; 2,59</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,45</t>
+          <t>0,81; 2,48</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7,45; 14,91</t>
+          <t>7,49; 13,98</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 42,27</t>
+          <t>-13,54; 45,07</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-20,02; 31,73</t>
+          <t>-22,21; 31,12</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>106,9; 218,25</t>
+          <t>108,43; 212,29</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>25,56; 73,4</t>
+          <t>24,72; 74,38</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>24,48; 73,9</t>
+          <t>22,99; 75,2</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>132,16; 308,56</t>
+          <t>134,85; 323,73</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>17,96; 53,84</t>
+          <t>17,67; 54,64</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>14,75; 51,27</t>
+          <t>14,82; 52,58</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>138,07; 296,72</t>
+          <t>140,19; 269,93</t>
         </is>
       </c>
     </row>
